--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_5089.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_5089.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5089</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mark Richard Adair</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -908,7 +973,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2019</t>
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1176,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -1120,7 +1183,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1223,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -1168,7 +1230,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1220,7 +1282,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1272,7 +1334,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1324,7 +1386,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1438,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1428,7 +1490,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1480,7 +1542,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1520,7 +1582,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -1528,7 +1589,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1580,7 +1641,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1620,7 +1681,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>13/01/2022</t>
@@ -1628,7 +1688,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1680,7 +1740,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1732,7 +1792,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1784,7 +1844,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1824,7 +1884,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>18/01/2023</t>
@@ -1832,7 +1891,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1884,7 +1943,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1924,7 +1983,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -1932,7 +1990,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1984,7 +2042,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2024,7 +2082,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -2032,7 +2089,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2084,7 +2141,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2123,7 +2180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2145,7 +2202,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2182,7 +2239,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2219,7 +2276,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2256,7 +2313,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4291</t>
+          <t>4291</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2293,7 +2350,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4295</t>
+          <t>4295</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2330,7 +2387,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2367,7 +2424,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2404,7 +2461,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2441,7 +2498,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2478,7 +2535,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2515,7 +2572,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2552,7 +2609,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2589,7 +2646,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2626,7 +2683,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2663,7 +2720,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2700,7 +2757,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2737,7 +2794,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2774,7 +2831,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2811,7 +2868,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2848,7 +2905,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2885,7 +2942,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2922,7 +2979,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4520</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2959,7 +3016,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4522</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2996,7 +3053,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3033,7 +3090,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3070,7 +3127,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3107,7 +3164,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3144,7 +3201,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3181,7 +3238,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3218,7 +3275,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3255,7 +3312,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3281,6 +3338,473 @@
       <c r="G31" t="inlineStr">
         <is>
           <t>0/29</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.72%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_5089.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_5089.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3401,9 +3402,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3416,10 +3414,6 @@
           <t>4439</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3462,105 +3456,453 @@
           <t>4474</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.63%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4520</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4522</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.72%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4397</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4428</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4439</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3570,17 +3912,12 @@
           <t>4496</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3590,13 +3927,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3604,17 +3934,12 @@
           <t>4520</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3624,13 +3949,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3638,23 +3956,14 @@
           <t>4605</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>8</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3664,27 +3973,14 @@
           <t>4608</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12.50%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3696,13 +3992,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3710,27 +3999,14 @@
           <t>4694</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>9</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.72%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3742,13 +4018,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3758,13 +4027,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3774,13 +4036,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3788,25 +4043,12 @@
           <t>4734</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_5089.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_5089.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -974,6 +972,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>07/07/2019</t>
@@ -1177,6 +1176,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -1224,6 +1224,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>08/01/2021</t>
@@ -1583,6 +1584,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -1682,6 +1684,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>13/01/2022</t>
@@ -1885,6 +1888,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>18/01/2023</t>
@@ -1984,6 +1988,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -1996,7 +2001,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2083,6 +2088,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -2095,7 +2101,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3345,712 +3351,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.87%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.63%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12.50%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.72%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4394</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4397</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4428</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4439</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4520</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4522</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>